--- a/biology/Médecine/KLS-13019/KLS-13019.xlsx
+++ b/biology/Médecine/KLS-13019/KLS-13019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le KLS-13019 est un dérivé du cannabidiol dont la chaîne latérale a été modifiée pour améliorer la solubilité et les propriétés de pénétration tissulaire. Il a été développé et breveté par Kannalife, filiale de Neuropathix, et s'est avéré 50 fois plus puissant que le cannabidiol en tant qu'agent neuroprotecteur, censé être médié par la modulation du canal échangeur sodium-calcium. Il avait également un index thérapeutique plus élevé que le cannabidiol[1],[2],[3]. Le KLS-13019 et le cannabidiol ont empêché le développement de neuropathie périphérique induite par la chimiothérapie, tandis que seul le KLS-13019 a inversé de manière unique la douleur neuropathique causée par la chimiothérapie. Le KLS-13019 se lie à moins de cibles biologiques que le cannabidiol et le KLS-13019 peut posséder la capacité unique d'inverser le comportement addictif, un effet non observé avec le cannabidiol[4].
+Le KLS-13019 est un dérivé du cannabidiol dont la chaîne latérale a été modifiée pour améliorer la solubilité et les propriétés de pénétration tissulaire. Il a été développé et breveté par Kannalife, filiale de Neuropathix, et s'est avéré 50 fois plus puissant que le cannabidiol en tant qu'agent neuroprotecteur, censé être médié par la modulation du canal échangeur sodium-calcium. Il avait également un index thérapeutique plus élevé que le cannabidiol. Le KLS-13019 et le cannabidiol ont empêché le développement de neuropathie périphérique induite par la chimiothérapie, tandis que seul le KLS-13019 a inversé de manière unique la douleur neuropathique causée par la chimiothérapie. Le KLS-13019 se lie à moins de cibles biologiques que le cannabidiol et le KLS-13019 peut posséder la capacité unique d'inverser le comportement addictif, un effet non observé avec le cannabidiol.
 </t>
         </is>
       </c>
